--- a/PowerSupply_IO_Summary.xlsx
+++ b/PowerSupply_IO_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert.Morawski\Documents\RM\projects\dBwan\BFN-PowerSupply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user2/Documents/programming_dirty/bcrl_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032185FE-6B0E-4B65-82C2-DF858E215621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D232C69-27BC-FF4D-9129-C892D3CBC3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0D10CC9E-D7E3-435C-88CB-12B56C0E5769}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="41120" windowHeight="25720" xr2:uid="{0D10CC9E-D7E3-435C-88CB-12B56C0E5769}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -980,8 +980,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1083,29 +1083,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1447,25 +1444,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058AF0F7-EEE3-41F3-BD2F-AFEE16AA0809}">
   <dimension ref="A1:AP241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="N238" sqref="N238"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1478,21 +1475,21 @@
       <c r="P3" t="s">
         <v>182</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="J4" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="J5" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1504,7 +1501,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1556,7 +1553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1632,7 +1629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1670,7 +1667,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1708,7 +1705,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1771,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
         <v>31</v>
       </c>
@@ -1826,7 +1823,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
         <v>114</v>
       </c>
@@ -1840,7 +1837,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1906,7 +1903,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +1993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2034,7 +2031,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2084,14 +2081,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="7"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -2120,7 +2116,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -2136,7 +2132,7 @@
       <c r="G25" t="s">
         <v>109</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>18</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -2155,7 +2151,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -2177,14 +2173,14 @@
       <c r="K26" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" t="s">
         <v>152</v>
       </c>
       <c r="S26" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2196,14 +2192,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="G28" s="4"/>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>173</v>
       </c>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="G29" s="4"/>
       <c r="J29" s="3" t="s">
         <v>246</v>
@@ -2211,14 +2207,14 @@
       <c r="K29" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="M29" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
       <c r="P29" s="5" t="s">
         <v>219</v>
       </c>
@@ -2226,19 +2222,19 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="G30" s="4"/>
-      <c r="J30" s="10"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="P30" s="17" t="s">
+      <c r="P30" s="15" t="s">
         <v>284</v>
       </c>
       <c r="Q30" s="6"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="J31" t="s">
         <v>227</v>
       </c>
@@ -2249,7 +2245,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -2265,7 +2261,7 @@
       <c r="G32" t="s">
         <v>146</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <v>0.3</v>
       </c>
       <c r="K32" s="3" t="s">
@@ -2279,8 +2275,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K33" s="7" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
         <v>147</v>
       </c>
       <c r="P33" t="s">
@@ -2291,22 +2287,22 @@
       </c>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K34" s="7" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J35" s="3" t="s">
         <v>248</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="M35" s="15" t="s">
+      <c r="M35" s="13" t="s">
         <v>247</v>
       </c>
       <c r="N35" s="3"/>
@@ -2315,26 +2311,26 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>116</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" t="s">
         <v>141</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -2357,7 +2353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>126</v>
       </c>
@@ -2371,7 +2367,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
         <v>127</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
         <v>128</v>
       </c>
@@ -2399,7 +2395,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
         <v>129</v>
       </c>
@@ -2413,7 +2409,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>130</v>
       </c>
@@ -2423,11 +2419,11 @@
       <c r="N44" t="s">
         <v>130</v>
       </c>
-      <c r="O44" s="16" t="s">
+      <c r="O44" s="14" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
         <v>131</v>
       </c>
@@ -2438,7 +2434,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
         <v>132</v>
       </c>
@@ -2452,7 +2448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G47" t="s">
         <v>133</v>
       </c>
@@ -2466,7 +2462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
         <v>134</v>
       </c>
@@ -2476,9 +2472,9 @@
       <c r="N48" t="s">
         <v>134</v>
       </c>
-      <c r="P48" s="10"/>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
         <v>135</v>
       </c>
@@ -2488,10 +2484,10 @@
       <c r="N49" t="s">
         <v>135</v>
       </c>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
         <v>136</v>
       </c>
@@ -2501,10 +2497,10 @@
       <c r="N50" t="s">
         <v>136</v>
       </c>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
         <v>137</v>
       </c>
@@ -2514,10 +2510,10 @@
       <c r="N51" t="s">
         <v>137</v>
       </c>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
         <v>138</v>
       </c>
@@ -2528,7 +2524,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
         <v>139</v>
       </c>
@@ -2539,7 +2535,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
         <v>140</v>
       </c>
@@ -2553,13 +2549,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B58" s="6"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>19</v>
       </c>
@@ -2585,7 +2581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -2611,7 +2607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2649,7 +2645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2687,7 +2683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +2721,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2763,7 +2759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2829,7 +2825,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2867,7 +2863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
         <v>31</v>
       </c>
@@ -2881,7 +2877,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
         <v>114</v>
       </c>
@@ -2895,7 +2891,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2961,7 +2957,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +3003,7 @@
       </c>
       <c r="AP72" s="4"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -3045,7 +3041,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -3095,7 +3091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="P76" s="3" t="s">
         <v>176</v>
       </c>
@@ -3106,39 +3102,39 @@
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="P77" s="10" t="s">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="P77" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10" t="s">
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
       <c r="W77" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="P78" s="10" t="s">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="P78" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10" t="s">
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>116</v>
       </c>
@@ -3167,7 +3163,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -3183,7 +3179,7 @@
       <c r="G81" t="s">
         <v>277</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J81" s="8">
         <v>24</v>
       </c>
       <c r="K81" s="3" t="s">
@@ -3202,40 +3198,40 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+    <row r="82" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14">
         <v>4</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16" t="s">
+      <c r="F82" s="14"/>
+      <c r="G82" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
       <c r="J82" s="3" t="s">
         <v>246</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="L82" s="14" t="s">
+      <c r="L82" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="M82" s="15" t="s">
+      <c r="M82" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
       <c r="P82" s="5" t="s">
         <v>219</v>
       </c>
@@ -3245,7 +3241,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -3253,24 +3249,24 @@
       <c r="K83" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="P83" s="17" t="s">
+      <c r="P83" s="15" t="s">
         <v>284</v>
       </c>
       <c r="Q83" s="6"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G84" s="4"/>
-      <c r="K84" s="9"/>
+      <c r="K84" s="8"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J85" t="s">
         <v>227</v>
       </c>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -3283,39 +3279,33 @@
       <c r="G86" t="s">
         <v>146</v>
       </c>
-      <c r="J86" s="9">
+      <c r="J86" s="8">
         <v>0.3</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K87" s="7"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K88" s="7"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>116</v>
       </c>
       <c r="E92" t="s">
         <v>112</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" t="s">
         <v>166</v>
       </c>
-      <c r="N92" s="7" t="s">
+      <c r="N92" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>123</v>
       </c>
@@ -3338,7 +3328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G94" t="s">
         <v>126</v>
       </c>
@@ -3352,7 +3342,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G95" t="s">
         <v>127</v>
       </c>
@@ -3366,7 +3356,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G96" t="s">
         <v>128</v>
       </c>
@@ -3380,7 +3370,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G97" t="s">
         <v>129</v>
       </c>
@@ -3394,7 +3384,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G98" t="s">
         <v>130</v>
       </c>
@@ -3404,11 +3394,11 @@
       <c r="N98" t="s">
         <v>130</v>
       </c>
-      <c r="O98" s="16" t="s">
+      <c r="O98" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G99" t="s">
         <v>131</v>
       </c>
@@ -3419,7 +3409,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G100" t="s">
         <v>132</v>
       </c>
@@ -3433,7 +3423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G101" t="s">
         <v>133</v>
       </c>
@@ -3447,7 +3437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G102" t="s">
         <v>134</v>
       </c>
@@ -3458,7 +3448,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G103" t="s">
         <v>135</v>
       </c>
@@ -3469,7 +3459,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G104" t="s">
         <v>136</v>
       </c>
@@ -3480,7 +3470,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G105" t="s">
         <v>137</v>
       </c>
@@ -3491,7 +3481,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G106" t="s">
         <v>138</v>
       </c>
@@ -3502,7 +3492,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G107" t="s">
         <v>139</v>
       </c>
@@ -3513,7 +3503,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G108" t="s">
         <v>140</v>
       </c>
@@ -3527,7 +3517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>198</v>
       </c>
@@ -3536,7 +3526,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>213</v>
       </c>
@@ -3550,7 +3540,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -3576,7 +3566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -3602,7 +3592,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -3628,7 +3618,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -3654,7 +3644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>216</v>
       </c>
@@ -3686,11 +3676,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="10" t="s">
         <v>222</v>
       </c>
       <c r="F122" s="5" t="s">
@@ -3709,14 +3699,14 @@
       <c r="K122" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L122" s="9">
+      <c r="L122" s="8">
         <f>6.5*J122</f>
         <v>33.15</v>
       </c>
-      <c r="M122" s="9" t="s">
+      <c r="M122" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="N122" s="18">
+      <c r="N122" s="16">
         <f>100-L122*100/80</f>
         <v>58.5625</v>
       </c>
@@ -3731,11 +3721,11 @@
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D123" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F123" s="17" t="s">
+      <c r="F123" s="15" t="s">
         <v>284</v>
       </c>
       <c r="G123" s="6"/>
@@ -3743,7 +3733,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>107</v>
       </c>
@@ -3757,7 +3747,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>200</v>
       </c>
@@ -3766,7 +3756,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>213</v>
       </c>
@@ -3780,7 +3770,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>125</v>
       </c>
@@ -3806,7 +3796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>126</v>
       </c>
@@ -3832,7 +3822,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>127</v>
       </c>
@@ -3858,7 +3848,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -3884,7 +3874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>216</v>
       </c>
@@ -3916,11 +3906,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A135" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="10" t="s">
         <v>222</v>
       </c>
       <c r="F135" s="5" t="s">
@@ -3939,14 +3929,14 @@
       <c r="K135" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L135" s="9">
+      <c r="L135" s="8">
         <f>6.5*J135</f>
         <v>31.2</v>
       </c>
-      <c r="M135" s="9" t="s">
+      <c r="M135" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="N135" s="18">
+      <c r="N135" s="16">
         <f>100-L135*100/80</f>
         <v>61</v>
       </c>
@@ -3961,7 +3951,7 @@
       <c r="S135" s="3"/>
       <c r="T135" s="3"/>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>107</v>
       </c>
@@ -3974,15 +3964,14 @@
       <c r="E136" t="s">
         <v>108</v>
       </c>
-      <c r="F136" s="20"/>
-      <c r="G136" s="19"/>
+      <c r="F136" s="17"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>201</v>
       </c>
@@ -3991,7 +3980,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>213</v>
       </c>
@@ -4005,7 +3994,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>125</v>
       </c>
@@ -4031,7 +4020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>126</v>
       </c>
@@ -4057,7 +4046,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>127</v>
       </c>
@@ -4083,7 +4072,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>128</v>
       </c>
@@ -4109,7 +4098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>216</v>
       </c>
@@ -4141,14 +4130,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A149" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="10" t="s">
         <v>222</v>
       </c>
       <c r="F149" s="5" t="s">
@@ -4167,14 +4156,14 @@
       <c r="K149" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L149" s="9">
+      <c r="L149" s="8">
         <f>6.5*J149</f>
         <v>33.15</v>
       </c>
-      <c r="M149" s="9" t="s">
+      <c r="M149" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="N149" s="18">
+      <c r="N149" s="16">
         <f>100-L149*100/80</f>
         <v>58.5625</v>
       </c>
@@ -4189,11 +4178,11 @@
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D150" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F150" s="17" t="s">
+      <c r="F150" s="15" t="s">
         <v>284</v>
       </c>
       <c r="G150" s="6"/>
@@ -4201,7 +4190,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>107</v>
       </c>
@@ -4214,15 +4203,13 @@
       <c r="E151" t="s">
         <v>108</v>
       </c>
-      <c r="F151" s="20"/>
-      <c r="G151" s="19"/>
-    </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F151" s="17"/>
+    </row>
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D152" s="3"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="19"/>
-    </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F152" s="17"/>
+    </row>
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>202</v>
       </c>
@@ -4231,7 +4218,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>213</v>
       </c>
@@ -4245,7 +4232,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>125</v>
       </c>
@@ -4271,7 +4258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>126</v>
       </c>
@@ -4297,7 +4284,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>127</v>
       </c>
@@ -4323,7 +4310,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>128</v>
       </c>
@@ -4349,11 +4336,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-    </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>216</v>
       </c>
@@ -4385,14 +4372,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A161" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E161" s="11" t="s">
+      <c r="E161" s="10" t="s">
         <v>222</v>
       </c>
       <c r="F161" s="5" t="s">
@@ -4411,14 +4398,14 @@
       <c r="K161" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L161" s="9">
+      <c r="L161" s="8">
         <f>6.5*J161</f>
         <v>31.2</v>
       </c>
-      <c r="M161" s="9" t="s">
+      <c r="M161" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="N161" s="18">
+      <c r="N161" s="16">
         <f>100-L161*100/80</f>
         <v>61</v>
       </c>
@@ -4433,7 +4420,7 @@
       <c r="S161" s="3"/>
       <c r="T161" s="3"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>107</v>
       </c>
@@ -4446,10 +4433,9 @@
       <c r="E162" t="s">
         <v>108</v>
       </c>
-      <c r="F162" s="20"/>
-      <c r="G162" s="19"/>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F162" s="17"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>211</v>
       </c>
@@ -4458,12 +4444,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>125</v>
       </c>
@@ -4471,7 +4457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>126</v>
       </c>
@@ -4482,7 +4468,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>127</v>
       </c>
@@ -4490,7 +4476,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>128</v>
       </c>
@@ -4498,19 +4484,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A171" s="12" t="s">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>107</v>
       </c>
@@ -4524,15 +4510,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12"/>
-    </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+    </row>
+    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>212</v>
       </c>
@@ -4541,12 +4527,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>125</v>
       </c>
@@ -4554,7 +4540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>126</v>
       </c>
@@ -4565,7 +4551,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>127</v>
       </c>
@@ -4573,7 +4559,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>128</v>
       </c>
@@ -4581,15 +4567,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B184" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>107</v>
       </c>
@@ -4603,7 +4589,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>203</v>
       </c>
@@ -4612,7 +4598,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>229</v>
       </c>
@@ -4626,14 +4612,14 @@
         <v>229</v>
       </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>125</v>
       </c>
       <c r="B191" t="s">
         <v>231</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="7" t="s">
         <v>262</v>
       </c>
       <c r="D191" t="s">
@@ -4658,7 +4644,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>126</v>
       </c>
@@ -4690,7 +4676,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>127</v>
       </c>
@@ -4722,7 +4708,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>128</v>
       </c>
@@ -4748,7 +4734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>129</v>
       </c>
@@ -4774,7 +4760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>130</v>
       </c>
@@ -4809,23 +4795,23 @@
         <v>233</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B198" s="10" t="s">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B198" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="10" t="s">
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="10" t="s">
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="I198" s="10"/>
-    </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I198" s="9"/>
+    </row>
+    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B199" s="3" t="s">
         <v>260</v>
       </c>
@@ -4833,7 +4819,7 @@
       <c r="D199" t="s">
         <v>274</v>
       </c>
-      <c r="E199" s="13" t="s">
+      <c r="E199" s="11" t="s">
         <v>261</v>
       </c>
       <c r="H199" t="s">
@@ -4852,7 +4838,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B200" s="5" t="s">
         <v>176</v>
       </c>
@@ -4876,7 +4862,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>204</v>
       </c>
@@ -4885,7 +4871,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>229</v>
       </c>
@@ -4899,14 +4885,14 @@
         <v>229</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>125</v>
       </c>
       <c r="B204" t="s">
         <v>231</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="7" t="s">
         <v>262</v>
       </c>
       <c r="D204" t="s">
@@ -4931,7 +4917,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>126</v>
       </c>
@@ -4963,7 +4949,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>127</v>
       </c>
@@ -4995,7 +4981,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>128</v>
       </c>
@@ -5021,7 +5007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>129</v>
       </c>
@@ -5047,7 +5033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>130</v>
       </c>
@@ -5082,10 +5068,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B211" s="3" t="s">
         <v>260</v>
       </c>
@@ -5093,7 +5079,7 @@
       <c r="D211" t="s">
         <v>273</v>
       </c>
-      <c r="E211" s="13" t="s">
+      <c r="E211" s="11" t="s">
         <v>261</v>
       </c>
       <c r="H211" t="s">
@@ -5112,7 +5098,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B212" s="5" t="s">
         <v>176</v>
       </c>
@@ -5136,7 +5122,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>205</v>
       </c>
@@ -5145,7 +5131,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>207</v>
       </c>
@@ -5155,14 +5141,14 @@
       <c r="E216" t="s">
         <v>278</v>
       </c>
-      <c r="G216" s="9">
+      <c r="G216" s="8">
         <v>25</v>
       </c>
       <c r="H216" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>206</v>
       </c>
@@ -5171,7 +5157,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>207</v>
       </c>
@@ -5181,14 +5167,14 @@
       <c r="E219" t="s">
         <v>278</v>
       </c>
-      <c r="G219" s="9">
+      <c r="G219" s="8">
         <v>25</v>
       </c>
       <c r="H219" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>208</v>
       </c>
@@ -5197,7 +5183,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>264</v>
       </c>
@@ -5211,7 +5197,7 @@
       <c r="G223" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="K223" s="9">
+      <c r="K223" s="8">
         <v>5</v>
       </c>
       <c r="L223" t="s">
@@ -5230,12 +5216,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D224" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>210</v>
       </c>
@@ -5244,11 +5230,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>264</v>
       </c>
-      <c r="K227" s="9">
+      <c r="K227" s="8">
         <v>5</v>
       </c>
       <c r="L227" t="s">
@@ -5267,19 +5253,19 @@
         <v>108</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D238" t="s">
         <v>279</v>
       </c>
@@ -5293,7 +5279,7 @@
       <c r="M238" t="s">
         <v>280</v>
       </c>
-      <c r="N238" s="21">
+      <c r="N238" s="18">
         <f>K238/48</f>
         <v>3.5687499999999996</v>
       </c>
@@ -5304,7 +5290,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K239">
         <f>SUM(G216,G219,K223,K227)</f>
         <v>60</v>
@@ -5316,12 +5302,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M240" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="241" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I241" t="s">
         <v>283</v>
       </c>
